--- a/Doc/Excel/Git.xlsx
+++ b/Doc/Excel/Git.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\git\MyKata\MyKata_Doc\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04F492B-E5CA-4A0B-A85F-B0B5BFEA34B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD2465-1CC9-46FA-9154-2E6682DF0CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20805" windowHeight="13740" xr2:uid="{D2D289F4-2BF6-4F32-8536-A71B23496146}"/>
+    <workbookView xWindow="21480" yWindow="1890" windowWidth="20730" windowHeight="11760" xr2:uid="{D2D289F4-2BF6-4F32-8536-A71B23496146}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Master</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +85,38 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回簽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例外行為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop--AfterPub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佈版專員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,13 +186,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,6 +213,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -190,23 +245,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1699179</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151573</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF6D799-3B77-4764-8489-AB573627F395}"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462E4C20-524B-4567-B86F-5AFFBF22CF5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -229,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2552700" y="1809750"/>
-          <a:ext cx="695325" cy="228600"/>
+          <a:off x="5128179" y="1133475"/>
+          <a:ext cx="700294" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -252,12 +307,1720 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
+      <xdr:colOff>679888</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>131936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3613</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163E295F-DD99-4395-A5B6-1AA0F2A43258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7728388" y="1208261"/>
+          <a:ext cx="695325" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669377</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>678902</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F123A614-6C31-45FC-8C1C-CE132A22F9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7717877" y="2041963"/>
+          <a:ext cx="695325" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644416</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653941</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCD7CB0-04A8-4CF1-9114-B1E353092C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7692916" y="2788854"/>
+          <a:ext cx="695325" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="圖片 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE57FA1A-B1FF-4E79-B045-526E80E6A65D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$14" spid="_x0000_s2061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7724775" y="400050"/>
+              <a:ext cx="695325" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644416</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="接點: 弧形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAE3F0C-987A-4ACA-A072-41745204E04E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6855930" y="1874769"/>
+          <a:ext cx="836986" cy="1028385"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5618"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2049327</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="接點: 弧形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3230A052-EFE3-42D5-9BBD-10F7C1738E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6522970" y="-415993"/>
+          <a:ext cx="504825" cy="2594112"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="stealth" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493230</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>679888</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="接點: 弧形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118FB207-8116-405E-9570-43D61C389F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6855930" y="1322562"/>
+          <a:ext cx="872458" cy="552207"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669377</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="接點: 弧形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A320B1-6618-4D5C-B276-D373E6FDFF18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6855930" y="1874769"/>
+          <a:ext cx="861947" cy="281494"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493231</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341752</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="接點: 弧形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0389E50-041E-4D64-A38E-A920FAAE68B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7247038" y="1045755"/>
+          <a:ext cx="437907" cy="1220121"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="接點: 弧形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF065A9D-1963-4732-97FA-8F971D575106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="7262838" y="1467861"/>
+          <a:ext cx="395794" cy="1209610"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31285"/>
+            <a:gd name="adj2" fmla="val 87207"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493230</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306279</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="接點: 弧形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A93315B-D7C2-44F1-893F-669B04F97002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6876912" y="1853788"/>
+          <a:ext cx="1142685" cy="1184649"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20006"/>
+            <a:gd name="adj2" fmla="val 105680"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2049326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="接點: 弧形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C721D3-69DC-478A-B514-B146947651A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6291988" y="-299311"/>
+          <a:ext cx="619125" cy="2246449"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>483705</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>26919</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>493230</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>36444</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="圖片 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EA2A27-D500-41E0-A908-8D99D5CDED61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$6" spid="_x0000_s2062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6160605" y="1760469"/>
+              <a:ext cx="695325" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140806</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="接點: 弧形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2883686-013C-4CC4-82E2-C9B569D1906D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2247484" y="559905"/>
+          <a:ext cx="381416" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149092</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="接點: 弧形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2053C0-3829-43A1-8C6A-AE429C6D649D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2206492" y="787262"/>
+          <a:ext cx="405843" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>329172</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>67236</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>519672</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>67236</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="圖片 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEA20C6-B122-4490-A3CF-610B919D9B01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$F$2:$K$16" spid="_x0000_s2063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="11492472" y="924486"/>
+              <a:ext cx="5676900" cy="3276600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="圖片 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2222131-D283-4844-9E8C-1C47F833CA56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$4:$W$21" spid="_x0000_s2064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9048750" y="4708071"/>
+              <a:ext cx="6123214" cy="3878036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>416378</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>425903</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1361</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="圖片 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D900912-3390-49D2-BA9A-0FB132BCC7ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$D$3:$E$10" spid="_x0000_s2065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="11506199" y="1053193"/>
+              <a:ext cx="1370240" cy="1751239"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151573</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483705</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="接點: 弧形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF44134-33A3-4B7A-87C4-EC753DA43516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5828473" y="1247775"/>
+          <a:ext cx="332132" cy="626994"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3613</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="接點: 弧形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF642C85-457D-4519-8F6D-52366B1CE1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8420100" y="514350"/>
+          <a:ext cx="3613" cy="808212"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4218101"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>678902</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="接點: 弧形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230AF44D-7DB9-4CE0-87E5-9D666A4EF198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8413202" y="514350"/>
+          <a:ext cx="6898" cy="1641913"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5761424"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2049325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="接點: 弧形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D0E859-B45E-4C91-A776-5892C975FF8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4913244" y="1927156"/>
+          <a:ext cx="1600200" cy="470037"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1828800</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="92" name="圖片 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF362A14-029C-4ABE-92BF-D3AE5B2B7AB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$18:$C$18" spid="_x0000_s2066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5257800" y="2962275"/>
+              <a:ext cx="1381125" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581441</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="接點: 弧形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA30591D-ABF8-4553-8CF9-C088C2719FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2257425" y="1228725"/>
+          <a:ext cx="381416" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581441</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="接點: 弧形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA6629B-85B4-4610-9953-0756452CFDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2257425" y="1438275"/>
+          <a:ext cx="381416" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571916</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="接點: 弧形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65312AF5-B14A-4766-8FDA-57B567ADDC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2247900" y="1657350"/>
+          <a:ext cx="381416" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1613454</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65848</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF6D799-3B77-4764-8489-AB573627F395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5050737" y="1782417"/>
+          <a:ext cx="696981" cy="224873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>460813</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>141461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>470338</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>150987</xdr:rowOff>
@@ -312,13 +2075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>526502</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>79813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>536027</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
@@ -373,13 +2136,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>44341</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>36129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>53866</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>45654</xdr:rowOff>
@@ -436,13 +2199,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
@@ -460,7 +2223,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$14" spid="_x0000_s1061"/>
+                  <a14:cameraTool cellRange="$B$14" spid="_x0000_s1099"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -499,13 +2262,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>531330</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>44341</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>148565</xdr:rowOff>
@@ -559,13 +2322,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65848</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>521805</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>188637</xdr:rowOff>
@@ -587,8 +2350,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3254651" y="1893198"/>
-          <a:ext cx="704437" cy="1656"/>
+          <a:off x="5747718" y="1893198"/>
+          <a:ext cx="455957" cy="1656"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -624,13 +2387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>531330</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>460813</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186981</xdr:rowOff>
@@ -684,13 +2447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>531330</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>526502</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>192250</xdr:rowOff>
@@ -744,13 +2507,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>531331</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>150987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>121848</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186981</xdr:rowOff>
@@ -802,13 +2565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>531330</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>187536</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
@@ -863,13 +2626,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>531330</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>186982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>392832</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>45655</xdr:rowOff>
@@ -924,13 +2687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>112437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>182840</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
@@ -962,6 +2725,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
           <a:headEnd type="none" w="lg" len="lg"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -985,13 +2751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>323022</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>112437</xdr:rowOff>
@@ -1022,6 +2788,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
           <a:headEnd type="none" w="lg" len="lg"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -1045,13 +2814,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>100633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>671514</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>112436</xdr:rowOff>
@@ -1103,13 +2872,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>182840</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>348491</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>74545</xdr:rowOff>
@@ -1165,78 +2934,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="118" name="圖片 117">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CF9355-A82B-4C27-BB9A-07499D2BE76C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$2:$J$16" spid="_x0000_s1062"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6858000" y="1076325"/>
-              <a:ext cx="4810125" cy="3286125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>323022</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>82826</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>332546</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>100634</xdr:rowOff>
@@ -1254,13 +2958,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$16" spid="_x0000_s1063"/>
+                  <a14:cameraTool cellRange="$B$16" spid="_x0000_s1100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1295,13 +2999,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>521805</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>74544</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>531330</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>84069</xdr:rowOff>
@@ -1319,7 +3023,384 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$6" spid="_x0000_s1064"/>
+                  <a14:cameraTool cellRange="$B$6" spid="_x0000_s1101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3959088" y="1780761"/>
+              <a:ext cx="696981" cy="224873"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231914</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>530088</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="接點: 弧形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10979F4-503E-4E49-B99F-B2636AEDD98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2294284" y="1234108"/>
+          <a:ext cx="298174" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554934</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="接點: 弧形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1196A5D7-9142-4790-950E-D7490A795276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2278132" y="1606827"/>
+          <a:ext cx="339172" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="stealth" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140806</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="接點: 弧形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F67BDFC-47FA-4B75-95D2-59DF39C723BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2240760" y="566629"/>
+          <a:ext cx="381416" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149092</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="接點: 弧形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2227975-CAFE-419F-889D-00D2D036D854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2211462" y="778565"/>
+          <a:ext cx="405843" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231912</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521804</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="接點: 弧形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425FDB4F-8253-4A7F-B5E1-2F4D19E46F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2294282" y="1118152"/>
+          <a:ext cx="289892" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>329172</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>67236</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>529197</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>210110</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="圖片 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6716D0FC-6BB8-4C67-8B8A-C0BCD3A90A0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$F$2:$K$16" spid="_x0000_s1102"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1333,8 +3414,263 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3959088" y="1780761"/>
-              <a:ext cx="696981" cy="224873"/>
+              <a:off x="11467819" y="941295"/>
+              <a:ext cx="5668496" cy="3471021"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="48" name="圖片 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A5AC75-DE42-423F-9231-C4BE70871162}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$4:$W$21" spid="_x0000_s1103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9105900" y="4743450"/>
+              <a:ext cx="6172200" cy="3895725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184788</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>332546</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="接點: 弧形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBD49BF-7EB2-491E-AD17-7FD1B34E1E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="122" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6538523" y="411098"/>
+          <a:ext cx="2198435" cy="1433975"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -10398"/>
+            <a:gd name="adj2" fmla="val 37611"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>610913</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="接點: 弧形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119F48B1-EF64-4800-BD88-881E9D50A69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2262428" y="2054154"/>
+          <a:ext cx="398002" cy="1932"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="圖片 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69235A1A-0D4B-4F26-A2C3-8710450A2517}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$D$3:$E$10" spid="_x0000_s1104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="11334750" y="1095375"/>
+              <a:ext cx="1381125" cy="1762125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1655,56 +3991,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E70FADC-59FC-44DA-950B-401571209F86}">
+  <dimension ref="B3:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C2732-F47E-4451-9BBC-2048050D6429}">
-  <dimension ref="B3:B16"/>
+  <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
